--- a/person/侯德森/任务4/故事.xlsx
+++ b/person/侯德森/任务4/故事.xlsx
@@ -11,7 +11,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="PBCode">#REF!</definedName>
@@ -390,7 +389,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C17" authorId="0">
+    <comment ref="C16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -412,7 +411,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I17" authorId="0">
+    <comment ref="I16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -439,7 +438,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
   <si>
     <t>PROJECT BACKLOG</t>
   </si>
@@ -498,40 +497,34 @@
     <t>user story</t>
   </si>
   <si>
+    <t>权限分配</t>
+  </si>
+  <si>
+    <t>作为一个管理者，我想给用户分配权限。以便于查看，更改用户权限</t>
+  </si>
+  <si>
+    <t>Initial Feature</t>
+  </si>
+  <si>
+    <t>Not Done</t>
+  </si>
+  <si>
+    <t>活动演出票</t>
+  </si>
+  <si>
+    <t>作为一个用户，我想买到演出，活动的票，以便于让我观看演出</t>
+  </si>
+  <si>
     <t>订单信息查询</t>
   </si>
   <si>
-    <t>作为一个用户，我想看查看我的订单。</t>
-  </si>
-  <si>
-    <t>Initial Feature</t>
-  </si>
-  <si>
-    <t>Not Done</t>
-  </si>
-  <si>
-    <t>权限分配</t>
-  </si>
-  <si>
-    <t>作为一个管理者，我想给用户分配权限。</t>
-  </si>
-  <si>
-    <t>活动演出票</t>
-  </si>
-  <si>
-    <t>作为一个用户，我想买到演出，活动的票。</t>
+    <t>作为一个用户，我想看查看我的订单。以便于让我随时掌握订单信息</t>
   </si>
   <si>
     <t>注册</t>
   </si>
   <si>
-    <t>作为一个用户，我想有登录的资格。</t>
-  </si>
-  <si>
-    <t>退出</t>
-  </si>
-  <si>
-    <t>作为一个用户，我希望不用时，可以直接退出。</t>
+    <t>作为一个用户，我想有登录的资格，以便于可以使用此软件</t>
   </si>
   <si>
     <t>QQ登录</t>
@@ -543,25 +536,25 @@
     <t>艺术品购买</t>
   </si>
   <si>
-    <t>作为一个观众，我希望能购买演出后的艺术品。</t>
+    <t>作为一个观众，我希望能购买演出后的艺术品，以便于让我有更好的体验感</t>
   </si>
   <si>
     <t>用户信息查询</t>
   </si>
   <si>
-    <t>作为一个管理员，我想查看用户的信息。</t>
+    <t>作为一个管理员，我想查看用户的信息，以便于管理用户</t>
   </si>
   <si>
     <t>搜索</t>
   </si>
   <si>
-    <t>作为一个用户，我想直接找到我想要的活动，演出详情。</t>
+    <t>作为一个用户，我想直接找到我想要的活动，演出详情，以便于节省自己的时间</t>
   </si>
   <si>
     <t>热门推荐</t>
   </si>
   <si>
-    <t>作为一个用户，我想给我推荐大卖的活动或演出。</t>
+    <t>作为一个用户，我想给我推荐热门的活动或演出，以便于让我更好的掌握活动信息</t>
   </si>
   <si>
     <t>关注</t>
@@ -579,13 +572,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00;\-0.00;;@\ "/>
     <numFmt numFmtId="177" formatCode="0;\-0;;@\ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -595,16 +588,15 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -622,7 +614,6 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
@@ -654,14 +645,120 @@
       <i/>
       <sz val="9"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -674,20 +771,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -695,59 +778,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -761,54 +792,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Tahoma"/>
       <charset val="134"/>
@@ -847,187 +830,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1274,8 +1257,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1295,17 +1293,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1317,21 +1309,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1354,17 +1331,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1373,158 +1356,158 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="44" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="44" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1599,8 +1582,7 @@
     <xf numFmtId="176" fontId="8" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1611,6 +1593,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1850,7 +1848,7 @@
       <sheetName val="Sheet2"/>
     </sheetNames>
     <definedNames>
-      <definedName name="OpenForm" refersTo="=#REF!"/>
+      <definedName name="OpenForm" refersTo="='#REF!'!#REF!"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -1985,27 +1983,6 @@
       <sheetData sheetId="18" refreshError="1"/>
       <sheetData sheetId="19" refreshError="1"/>
       <sheetData sheetId="20" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="PEOJECT VISION"/>
-      <sheetName val="Business Value"/>
-      <sheetName val="User Model"/>
-      <sheetName val="PROJECT BACKLOG"/>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2298,32 +2275,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:P52"/>
+  <dimension ref="A2:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.82407407407407" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="2" width="5.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.3333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7407407407407" style="1" customWidth="1"/>
-    <col min="6" max="6" width="98.287037037037" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.33333333333333" style="1" customWidth="1"/>
-    <col min="10" max="11" width="5.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="5.15740740740741" style="1" customWidth="1"/>
-    <col min="15" max="15" width="4.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="88.3333333333333" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.82407407407407" style="1"/>
+    <col min="1" max="2" width="5.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.3333333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.7407407407407" style="2" customWidth="1"/>
+    <col min="6" max="6" width="98.287037037037" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13" style="2" customWidth="1"/>
+    <col min="9" max="9" width="6.33333333333333" style="2" customWidth="1"/>
+    <col min="10" max="11" width="5.5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="6.5" style="2" customWidth="1"/>
+    <col min="13" max="13" width="5.5" style="2" customWidth="1"/>
+    <col min="14" max="14" width="5.15740740740741" style="2" customWidth="1"/>
+    <col min="15" max="15" width="4.5" style="2" customWidth="1"/>
+    <col min="16" max="16" width="88.3333333333333" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="8.82407407407407" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" s="2" customFormat="1" ht="51.75" customHeight="1" spans="1:11">
+    <row r="2" s="1" customFormat="1" ht="51.75" customHeight="1" spans="1:11">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -2338,19 +2315,19 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.95" spans="1:5">
+    <row r="4" s="2" customFormat="1" ht="13.95" spans="1:5">
       <c r="A4" s="5" t="e">
         <f>MAX('[1]PROJECT BACKLOG'!$A$6:$A$28)</f>
         <v>#REF!</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="46" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="90.75" customHeight="1" spans="1:16">
+    <row r="5" s="2" customFormat="1" ht="90.75" customHeight="1" spans="1:16">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
@@ -2400,9 +2377,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:16">
+    <row r="6" s="2" customFormat="1" spans="1:16">
       <c r="A6" s="12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B6" s="13">
         <v>1</v>
@@ -2426,31 +2403,31 @@
         <v>22</v>
       </c>
       <c r="I6" s="28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J6" s="29">
         <v>95</v>
       </c>
       <c r="K6" s="30"/>
       <c r="L6" s="31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M6" s="32"/>
       <c r="N6" s="31"/>
       <c r="O6" s="31"/>
       <c r="P6" s="33"/>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:16">
-      <c r="A7" s="12">
-        <v>6</v>
-      </c>
-      <c r="B7" s="13">
+    <row r="7" s="2" customFormat="1" spans="1:16">
+      <c r="A7" s="16">
+        <v>5</v>
+      </c>
+      <c r="B7" s="17">
         <v>1</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="18">
         <v>1</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="18" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="14" t="s">
@@ -2459,38 +2436,38 @@
       <c r="F7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="18" t="s">
         <v>22</v>
       </c>
       <c r="I7" s="28">
         <v>2</v>
       </c>
-      <c r="J7" s="29">
-        <v>95</v>
-      </c>
-      <c r="K7" s="30"/>
+      <c r="J7" s="34">
+        <v>94</v>
+      </c>
+      <c r="K7" s="35"/>
       <c r="L7" s="31">
+        <v>1</v>
+      </c>
+      <c r="M7" s="32"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="37"/>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:16">
+      <c r="A8" s="12">
         <v>2</v>
       </c>
-      <c r="M7" s="32"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="34"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:16">
-      <c r="A8" s="16">
-        <v>5</v>
-      </c>
-      <c r="B8" s="17">
+      <c r="B8" s="13">
         <v>1</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="14">
         <v>1</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="14" t="s">
@@ -2499,28 +2476,28 @@
       <c r="F8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="14" t="s">
         <v>22</v>
       </c>
       <c r="I8" s="28">
-        <v>2</v>
-      </c>
-      <c r="J8" s="35">
-        <v>94</v>
-      </c>
-      <c r="K8" s="36"/>
+        <v>3</v>
+      </c>
+      <c r="J8" s="29">
+        <v>92</v>
+      </c>
+      <c r="K8" s="30"/>
       <c r="L8" s="31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M8" s="32"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
       <c r="P8" s="38"/>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:16">
+    <row r="9" s="2" customFormat="1" spans="1:16">
       <c r="A9" s="16">
         <v>7</v>
       </c>
@@ -2548,21 +2525,21 @@
       <c r="I9" s="28">
         <v>1</v>
       </c>
-      <c r="J9" s="35">
+      <c r="J9" s="39">
         <v>92</v>
       </c>
-      <c r="K9" s="36"/>
-      <c r="L9" s="37">
+      <c r="K9" s="35"/>
+      <c r="L9" s="40">
         <v>1</v>
       </c>
-      <c r="M9" s="32"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="38"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="37"/>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:16">
+    <row r="10" s="2" customFormat="1" spans="1:16">
       <c r="A10" s="12">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B10" s="13">
         <v>1</v>
@@ -2586,23 +2563,22 @@
         <v>22</v>
       </c>
       <c r="I10" s="28">
+        <v>3</v>
+      </c>
+      <c r="J10" s="39">
+        <v>88</v>
+      </c>
+      <c r="K10" s="35"/>
+      <c r="L10" s="42">
         <v>2</v>
       </c>
-      <c r="J10" s="29">
-        <v>90</v>
-      </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="31">
-        <v>2</v>
-      </c>
-      <c r="M10" s="32"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="33"/>
+      <c r="M10" s="41"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="37"/>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:16">
+    <row r="11" s="2" customFormat="1" spans="1:16">
       <c r="A11" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B11" s="13">
         <v>1</v>
@@ -2626,31 +2602,31 @@
         <v>22</v>
       </c>
       <c r="I11" s="28">
-        <v>3</v>
-      </c>
-      <c r="J11" s="35">
+        <v>2</v>
+      </c>
+      <c r="J11" s="43">
         <v>88</v>
       </c>
-      <c r="K11" s="36"/>
-      <c r="L11" s="31">
+      <c r="K11" s="30"/>
+      <c r="L11" s="42">
         <v>2</v>
       </c>
-      <c r="M11" s="32"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
       <c r="P11" s="38"/>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:16">
-      <c r="A12" s="12">
-        <v>4</v>
-      </c>
-      <c r="B12" s="13">
+    <row r="12" s="2" customFormat="1" spans="1:16">
+      <c r="A12" s="16">
+        <v>3</v>
+      </c>
+      <c r="B12" s="17">
         <v>1</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="18">
         <v>1</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="18" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="14" t="s">
@@ -2659,38 +2635,38 @@
       <c r="F12" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="18" t="s">
         <v>22</v>
       </c>
       <c r="I12" s="28">
         <v>2</v>
       </c>
-      <c r="J12" s="29">
-        <v>88</v>
-      </c>
-      <c r="K12" s="30"/>
-      <c r="L12" s="31">
-        <v>2</v>
-      </c>
-      <c r="M12" s="32"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="33"/>
+      <c r="J12" s="39">
+        <v>85</v>
+      </c>
+      <c r="K12" s="35"/>
+      <c r="L12" s="42">
+        <v>1</v>
+      </c>
+      <c r="M12" s="41"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="37"/>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:16">
-      <c r="A13" s="16">
-        <v>3</v>
-      </c>
-      <c r="B13" s="17">
+    <row r="13" s="2" customFormat="1" spans="1:16">
+      <c r="A13" s="12">
+        <v>8</v>
+      </c>
+      <c r="B13" s="13">
         <v>1</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="14">
         <v>1</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="14" t="s">
@@ -2699,38 +2675,38 @@
       <c r="F13" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="H13" s="14" t="s">
         <v>22</v>
       </c>
       <c r="I13" s="28">
         <v>2</v>
       </c>
-      <c r="J13" s="35">
-        <v>85</v>
-      </c>
-      <c r="K13" s="36"/>
-      <c r="L13" s="31">
-        <v>1</v>
-      </c>
-      <c r="M13" s="32"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
+      <c r="J13" s="43">
+        <v>82</v>
+      </c>
+      <c r="K13" s="30"/>
+      <c r="L13" s="42">
+        <v>2</v>
+      </c>
+      <c r="M13" s="41"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
       <c r="P13" s="38"/>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:16">
-      <c r="A14" s="12">
-        <v>8</v>
-      </c>
-      <c r="B14" s="13">
+    <row r="14" s="2" customFormat="1" spans="1:16">
+      <c r="A14" s="16">
+        <v>9</v>
+      </c>
+      <c r="B14" s="17">
         <v>1</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="18">
         <v>1</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="18" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="14" t="s">
@@ -2739,38 +2715,38 @@
       <c r="F14" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="18" t="s">
         <v>22</v>
       </c>
       <c r="I14" s="28">
         <v>2</v>
       </c>
-      <c r="J14" s="29">
+      <c r="J14" s="39">
         <v>82</v>
       </c>
-      <c r="K14" s="30"/>
-      <c r="L14" s="31">
+      <c r="K14" s="35"/>
+      <c r="L14" s="40">
         <v>2</v>
       </c>
-      <c r="M14" s="32"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="33"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="37"/>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:16">
-      <c r="A15" s="16">
-        <v>9</v>
-      </c>
-      <c r="B15" s="17">
+    <row r="15" s="2" customFormat="1" ht="13.95" spans="1:16">
+      <c r="A15" s="12">
+        <v>10</v>
+      </c>
+      <c r="B15" s="13">
         <v>1</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="14">
         <v>1</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="14" t="s">
@@ -2779,122 +2755,72 @@
       <c r="F15" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="H15" s="14" t="s">
         <v>22</v>
       </c>
       <c r="I15" s="28">
-        <v>2</v>
-      </c>
-      <c r="J15" s="35">
-        <v>82</v>
-      </c>
-      <c r="K15" s="36"/>
-      <c r="L15" s="37">
-        <v>2</v>
-      </c>
-      <c r="M15" s="32"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
+        <v>1</v>
+      </c>
+      <c r="J15" s="43">
+        <v>70</v>
+      </c>
+      <c r="K15" s="30"/>
+      <c r="L15" s="42">
+        <v>1</v>
+      </c>
+      <c r="M15" s="41"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
       <c r="P15" s="38"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="13.95" spans="1:16">
-      <c r="A16" s="12">
+    <row r="16" s="2" customFormat="1" ht="13.95" spans="1:16">
+      <c r="A16" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="21">
+        <f>SUBTOTAL(103,C6:C15)</f>
         <v>10</v>
       </c>
-      <c r="B16" s="13">
-        <v>1</v>
-      </c>
-      <c r="C16" s="14">
-        <v>1</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" s="28">
-        <v>1</v>
-      </c>
-      <c r="J16" s="29">
-        <v>70</v>
-      </c>
-      <c r="K16" s="30"/>
-      <c r="L16" s="31">
-        <v>1</v>
-      </c>
-      <c r="M16" s="32"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="33"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="44">
+        <f>SUM(I6:I15)</f>
+        <v>20</v>
+      </c>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20">
+        <f>SUM(L6:L15)</f>
+        <v>17</v>
+      </c>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="45"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="13.95" spans="1:16">
-      <c r="A17" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21">
-        <f>SUBTOTAL(103,C6:C16)</f>
-        <v>11</v>
-      </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="39">
-        <f>SUM(I6:I16)</f>
-        <v>22</v>
-      </c>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20">
-        <f>SUM(L6:L16)</f>
-        <v>19</v>
-      </c>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="40"/>
+    <row r="50" s="2" customFormat="1" spans="6:12">
+      <c r="F50" s="22"/>
+      <c r="L50" s="22"/>
     </row>
-    <row r="51" s="1" customFormat="1" spans="6:12">
+    <row r="51" s="2" customFormat="1" spans="6:12">
       <c r="F51" s="22"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
       <c r="L51" s="22"/>
     </row>
-    <row r="52" s="1" customFormat="1" spans="6:12">
-      <c r="F52" s="22"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="22"/>
-    </row>
   </sheetData>
-  <sortState ref="A6:P16">
-    <sortCondition ref="J6:J16" descending="1"/>
+  <sortState ref="A6:P15">
+    <sortCondition ref="J6:J15" descending="1"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="B2:K2"/>
   </mergeCells>
-  <conditionalFormatting sqref="K6:K16">
+  <conditionalFormatting sqref="K6:K15">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="percent" val="0"/>
@@ -2903,12 +2829,26 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5bfe9e08-a61d-4fff-a43b-22593976e022}</x14:id>
+          <x14:id>{0382b711-d3b6-4d4a-9757-1d1151efd205}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N6:N16">
+  <conditionalFormatting sqref="O6:O15">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="5"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6367ea7d-a572-4a9c-a474-cbc4657adf9e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N6:N9 N11:N15">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="1"/>
@@ -2917,33 +2857,19 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d6e1e515-1817-4969-b690-995363deaebf}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O6:O16">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="5"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7f801458-6d68-4ceb-8c04-8ec55edcdc95}</x14:id>
+          <x14:id>{4af692b6-0cf1-4fa9-be59-66b903faa154}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G9 G10:G15">
       <formula1>PBType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H9 H10:H15">
       <formula1>PBStatus</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6:J16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6:J9 J10:J15">
       <formula1>PBCode</formula1>
     </dataValidation>
   </dataValidations>
@@ -2984,7 +2910,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5bfe9e08-a61d-4fff-a43b-22593976e022}">
+          <x14:cfRule type="dataBar" id="{0382b711-d3b6-4d4a-9757-1d1151efd205}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -2995,10 +2921,10 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K6:K16</xm:sqref>
+          <xm:sqref>K6:K15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d6e1e515-1817-4969-b690-995363deaebf}">
+          <x14:cfRule type="dataBar" id="{6367ea7d-a572-4a9c-a474-cbc4657adf9e}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>1</xm:f>
@@ -3009,10 +2935,10 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>N6:N16</xm:sqref>
+          <xm:sqref>O6:O15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7f801458-6d68-4ceb-8c04-8ec55edcdc95}">
+          <x14:cfRule type="dataBar" id="{4af692b6-0cf1-4fa9-be59-66b903faa154}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>1</xm:f>
@@ -3023,7 +2949,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>O6:O16</xm:sqref>
+          <xm:sqref>N6:N9 N11:N15</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
